--- a/biology/Zoologie/Caenoplana_variegata/Caenoplana_variegata.xlsx
+++ b/biology/Zoologie/Caenoplana_variegata/Caenoplana_variegata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caenoplana variegata est une espèce de vers plats terrestres du genre  Caenoplana et de la famille des Geoplanidae (sous-famille des Rhynchodeminae).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce, assez grande, mesure de 5 à 12 cm. Elle se caractérise par un dos brun foncé à presque noir avec une bande jaune au centre de laquelle figurent deux fines lignes noires. La tête est pointue.
 </t>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Caenoplana variegata se nourrit essentiellement d'arthropodes qu'il trouve sur le sol (cloportes, myriapodes…).
-Reproduction
-Cette espèce se reproduit par scissiparité[2].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caenoplana variegata se nourrit essentiellement d'arthropodes qu'il trouve sur le sol (cloportes, myriapodes…).
 </t>
         </is>
       </c>
@@ -573,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aire de répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son aire de répartition naturelle est l'Australie mais l'espèce est présente dans les jardins, les vergers et les pépinières d'Espagne, de France (notamment dans le Midi, en Bretagne[2] et dans le Calvados[3]), de Grande-Bretagne et des Pays-Bas où elle s'est acclimatée depuis 2014.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se reproduit par scissiparité.
 </t>
         </is>
       </c>
@@ -604,14 +627,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition naturelle est l'Australie mais l'espèce est présente dans les jardins, les vergers et les pépinières d'Espagne, de France (notamment dans le Midi, en Bretagne et dans le Calvados), de Grande-Bretagne et des Pays-Bas où elle s'est acclimatée depuis 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caenoplana_variegata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caenoplana_variegata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Caenoplana variegata a été initialement décrite en 1888 par les naturalistes australiens Joseph James Fletcher (d) (1850-1926) et Alexander Greenlaw Hamilton (d) (1852-1941) sous le protonyme de Geoplana variegata[1],[Publ. orig. 1]. Le nom valide complet avec auteur de ce taxon est ainsi Caenoplana variegata (Fletcher &amp; Hamilton, 1888)[1].
-Synonymes
-Caenoplana variegata a pour synonymes[1] les espèces suivantes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Caenoplana variegata a été initialement décrite en 1888 par les naturalistes australiens Joseph James Fletcher (d) (1850-1926) et Alexander Greenlaw Hamilton (d) (1852-1941) sous le protonyme de Geoplana variegata,[Publ. orig. 1]. Le nom valide complet avec auteur de ce taxon est ainsi Caenoplana variegata (Fletcher &amp; Hamilton, 1888).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caenoplana_variegata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caenoplana_variegata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Caenoplana variegata a pour synonymes les espèces suivantes :
 Australopacifica bicolor (Graff, 1899) ;
 Australopacifica variegata (Fletcher &amp; Hamilton, 1888) ;
 Caenoplana bicolor (Graff, 1899) ;
